--- a/data/trans_media/Q17H_A-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q17H_A-Provincia-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,93</t>
+          <t>0,57; 0,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,66</t>
+          <t>0,29; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,72</t>
+          <t>0,49; 0,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,88</t>
+          <t>0,53; 0,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,75</t>
+          <t>0,49; 0,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,95</t>
+          <t>0,73; 0,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,62</t>
+          <t>0,41; 0,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,88</t>
+          <t>0,56; 0,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,83</t>
+          <t>0,45; 0,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,68</t>
+          <t>0,39; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,05</t>
+          <t>0,0; 0,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,54</t>
+          <t>0,33; 0,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,42</t>
+          <t>0,74; 1,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,02</t>
+          <t>0,69; 1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,69</t>
+          <t>0,36; 0,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,78</t>
+          <t>0,28; 0,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,02</t>
+          <t>0,6; 1,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,8</t>
+          <t>0,53; 0,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,47</t>
+          <t>0,55; 1,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,64</t>
+          <t>0,2; 0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,34</t>
+          <t>0,14; 0,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,91</t>
+          <t>0,43; 0,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,9</t>
+          <t>0,39; 0,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,3</t>
+          <t>0,69; 1,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,49</t>
+          <t>0,23; 0,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,44</t>
+          <t>0,23; 0,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,83</t>
+          <t>0,5; 0,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,6</t>
+          <t>0,36; 0,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,11</t>
+          <t>0,75; 1,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,95</t>
+          <t>0,6; 0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,69</t>
+          <t>0,4; 0,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,61</t>
+          <t>0,34; 0,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,07</t>
+          <t>0,76; 1,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,01</t>
+          <t>0,63; 0,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,55</t>
+          <t>0,36; 0,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,76</t>
+          <t>0,59; 0,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,68</t>
+          <t>0,48; 0,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,8</t>
+          <t>0,66; 0,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,53</t>
+          <t>0,43; 0,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,6</t>
+          <t>0,5; 0,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
